--- a/Example_data/Output/Predictions/MovementEcologyPaper/ctmm_output/home_range_data.xlsx
+++ b/Example_data/Output/Predictions/MovementEcologyPaper/ctmm_output/home_range_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -56,9 +56,6 @@
     <t xml:space="preserve">026-41490</t>
   </si>
   <si>
-    <t xml:space="preserve">026-41491</t>
-  </si>
-  <si>
     <t xml:space="preserve">026-41492</t>
   </si>
   <si>
@@ -68,33 +65,12 @@
     <t xml:space="preserve">027-48902</t>
   </si>
   <si>
-    <t xml:space="preserve">027-48905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">027-48909</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-48914</t>
   </si>
   <si>
-    <t xml:space="preserve">027-48915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">027-48916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">027-48917</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-48919</t>
   </si>
   <si>
-    <t xml:space="preserve">027-48920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">027-48921</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-48922</t>
   </si>
   <si>
@@ -113,9 +89,6 @@
     <t xml:space="preserve">027-48948</t>
   </si>
   <si>
-    <t xml:space="preserve">027-48953</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-48954</t>
   </si>
   <si>
@@ -131,9 +104,6 @@
     <t xml:space="preserve">027-48960</t>
   </si>
   <si>
-    <t xml:space="preserve">027-48961</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-48962</t>
   </si>
   <si>
@@ -155,9 +125,6 @@
     <t xml:space="preserve">027-48972</t>
   </si>
   <si>
-    <t xml:space="preserve">027-48975</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-48977</t>
   </si>
   <si>
@@ -167,31 +134,28 @@
     <t xml:space="preserve">027-48980</t>
   </si>
   <si>
-    <t xml:space="preserve">027-48982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">027-48984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">027-48986</t>
+    <t xml:space="preserve">027-48982a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">027-48982b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">027-48984a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">027-48984b</t>
   </si>
   <si>
     <t xml:space="preserve">027-48989</t>
   </si>
   <si>
-    <t xml:space="preserve">027-48990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">027-48991</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-48993</t>
   </si>
   <si>
-    <t xml:space="preserve">027-48996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">027-48998</t>
+    <t xml:space="preserve">027-48996a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">027-48996b</t>
   </si>
   <si>
     <t xml:space="preserve">027-52601</t>
@@ -200,24 +164,15 @@
     <t xml:space="preserve">027-52603</t>
   </si>
   <si>
-    <t xml:space="preserve">027-52604</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-52605</t>
   </si>
   <si>
     <t xml:space="preserve">027-52606</t>
   </si>
   <si>
-    <t xml:space="preserve">027-52611</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-52613</t>
   </si>
   <si>
-    <t xml:space="preserve">027-52614</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-52615</t>
   </si>
   <si>
@@ -251,9 +206,6 @@
     <t xml:space="preserve">027-52627</t>
   </si>
   <si>
-    <t xml:space="preserve">027-52633</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-52634</t>
   </si>
   <si>
@@ -269,9 +221,6 @@
     <t xml:space="preserve">027-52644</t>
   </si>
   <si>
-    <t xml:space="preserve">027-52645</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-52648</t>
   </si>
   <si>
@@ -281,27 +230,18 @@
     <t xml:space="preserve">027-52651</t>
   </si>
   <si>
-    <t xml:space="preserve">027-52653</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-52654</t>
   </si>
   <si>
     <t xml:space="preserve">027-52658</t>
   </si>
   <si>
-    <t xml:space="preserve">027-52661</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-52662</t>
   </si>
   <si>
     <t xml:space="preserve">027-52664</t>
   </si>
   <si>
-    <t xml:space="preserve">027-52667</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-52668</t>
   </si>
   <si>
@@ -338,15 +278,9 @@
     <t xml:space="preserve">027-52698</t>
   </si>
   <si>
-    <t xml:space="preserve">027-55403</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-55406</t>
   </si>
   <si>
-    <t xml:space="preserve">027-55408</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-55409</t>
   </si>
   <si>
@@ -371,9 +305,6 @@
     <t xml:space="preserve">027-55428</t>
   </si>
   <si>
-    <t xml:space="preserve">027-55429</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-55433</t>
   </si>
   <si>
@@ -395,30 +326,15 @@
     <t xml:space="preserve">027-55442</t>
   </si>
   <si>
-    <t xml:space="preserve">027-55445</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-55449</t>
   </si>
   <si>
     <t xml:space="preserve">027-55451</t>
   </si>
   <si>
-    <t xml:space="preserve">027-55452</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-55456</t>
   </si>
   <si>
-    <t xml:space="preserve">027-55457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">027-55459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">027-55460</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-55461</t>
   </si>
   <si>
@@ -443,9 +359,6 @@
     <t xml:space="preserve">027-55533</t>
   </si>
   <si>
-    <t xml:space="preserve">027-55535</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-55539</t>
   </si>
   <si>
@@ -455,12 +368,6 @@
     <t xml:space="preserve">027-55549</t>
   </si>
   <si>
-    <t xml:space="preserve">027-55552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">027-55558</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-55561</t>
   </si>
   <si>
@@ -476,31 +383,19 @@
     <t xml:space="preserve">027-55568</t>
   </si>
   <si>
-    <t xml:space="preserve">027-55572</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-55573</t>
   </si>
   <si>
-    <t xml:space="preserve">027-55583</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-55584</t>
   </si>
   <si>
     <t xml:space="preserve">027-55599</t>
   </si>
   <si>
-    <t xml:space="preserve">027-55600</t>
-  </si>
-  <si>
     <t xml:space="preserve">027-55601</t>
   </si>
   <si>
     <t xml:space="preserve">027-55602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">027-55603</t>
   </si>
   <si>
     <t xml:space="preserve">027-55604</t>
@@ -960,7 +855,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -1004,7 +899,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1026,7 +921,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1037,7 +932,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1048,7 +943,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1059,7 +954,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1070,7 +965,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1081,7 +976,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1092,7 +987,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1103,7 +998,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -1114,7 +1009,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1125,7 +1020,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1136,7 +1031,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1147,7 +1042,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -1158,7 +1053,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -1169,7 +1064,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -1180,7 +1075,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -1191,7 +1086,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -1202,7 +1097,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -1213,7 +1108,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -1224,7 +1119,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -1235,7 +1130,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -1246,7 +1141,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -1257,7 +1152,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
@@ -1268,7 +1163,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -1279,7 +1174,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -1290,7 +1185,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -1301,7 +1196,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -1312,7 +1207,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -1323,7 +1218,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -1334,7 +1229,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -1345,7 +1240,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -1356,7 +1251,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -1367,7 +1262,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -1378,7 +1273,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -1389,7 +1284,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -1400,7 +1295,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -1411,7 +1306,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -1422,7 +1317,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -1433,7 +1328,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -1444,7 +1339,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -1455,7 +1350,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
@@ -1466,7 +1361,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -1477,7 +1372,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
@@ -1488,7 +1383,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
@@ -1499,7 +1394,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
@@ -1510,7 +1405,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
@@ -1521,7 +1416,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
@@ -1532,7 +1427,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
@@ -1543,7 +1438,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="n">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
@@ -1554,7 +1449,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
@@ -1565,7 +1460,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
@@ -1576,7 +1471,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="n">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
@@ -1587,7 +1482,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
@@ -1598,7 +1493,7 @@
         <v>66</v>
       </c>
       <c r="B65" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
@@ -1609,7 +1504,7 @@
         <v>67</v>
       </c>
       <c r="B66" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
@@ -1620,7 +1515,7 @@
         <v>68</v>
       </c>
       <c r="B67" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
@@ -1631,7 +1526,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="n">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
@@ -1642,7 +1537,7 @@
         <v>70</v>
       </c>
       <c r="B69" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
@@ -1653,7 +1548,7 @@
         <v>71</v>
       </c>
       <c r="B70" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
@@ -1664,7 +1559,7 @@
         <v>72</v>
       </c>
       <c r="B71" t="n">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
@@ -1675,7 +1570,7 @@
         <v>73</v>
       </c>
       <c r="B72" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
@@ -1686,7 +1581,7 @@
         <v>74</v>
       </c>
       <c r="B73" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
@@ -1697,7 +1592,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
@@ -1708,7 +1603,7 @@
         <v>76</v>
       </c>
       <c r="B75" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
@@ -1719,7 +1614,7 @@
         <v>77</v>
       </c>
       <c r="B76" t="n">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
@@ -1730,7 +1625,7 @@
         <v>78</v>
       </c>
       <c r="B77" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
@@ -1741,7 +1636,7 @@
         <v>79</v>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
@@ -1752,7 +1647,7 @@
         <v>80</v>
       </c>
       <c r="B79" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
@@ -1763,7 +1658,7 @@
         <v>81</v>
       </c>
       <c r="B80" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C80" t="b">
         <v>1</v>
@@ -1774,7 +1669,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
@@ -1785,7 +1680,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="n">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
@@ -1796,7 +1691,7 @@
         <v>84</v>
       </c>
       <c r="B83" t="n">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
@@ -1807,7 +1702,7 @@
         <v>85</v>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
@@ -1818,7 +1713,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="n">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
@@ -1829,7 +1724,7 @@
         <v>87</v>
       </c>
       <c r="B86" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
@@ -1840,7 +1735,7 @@
         <v>88</v>
       </c>
       <c r="B87" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C87" t="b">
         <v>1</v>
@@ -1851,7 +1746,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
@@ -1862,7 +1757,7 @@
         <v>90</v>
       </c>
       <c r="B89" t="n">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="C89" t="b">
         <v>1</v>
@@ -1873,7 +1768,7 @@
         <v>91</v>
       </c>
       <c r="B90" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
@@ -1884,7 +1779,7 @@
         <v>92</v>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
@@ -1895,7 +1790,7 @@
         <v>93</v>
       </c>
       <c r="B92" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
@@ -1906,7 +1801,7 @@
         <v>94</v>
       </c>
       <c r="B93" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
@@ -1917,7 +1812,7 @@
         <v>95</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
@@ -1928,7 +1823,7 @@
         <v>96</v>
       </c>
       <c r="B95" t="n">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
@@ -1939,7 +1834,7 @@
         <v>97</v>
       </c>
       <c r="B96" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
@@ -1950,7 +1845,7 @@
         <v>98</v>
       </c>
       <c r="B97" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
@@ -1961,7 +1856,7 @@
         <v>99</v>
       </c>
       <c r="B98" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
@@ -1972,7 +1867,7 @@
         <v>100</v>
       </c>
       <c r="B99" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
@@ -1983,7 +1878,7 @@
         <v>101</v>
       </c>
       <c r="B100" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
@@ -1994,7 +1889,7 @@
         <v>102</v>
       </c>
       <c r="B101" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
@@ -2005,7 +1900,7 @@
         <v>103</v>
       </c>
       <c r="B102" t="n">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="C102" t="b">
         <v>1</v>
@@ -2016,7 +1911,7 @@
         <v>104</v>
       </c>
       <c r="B103" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C103" t="b">
         <v>1</v>
@@ -2027,7 +1922,7 @@
         <v>105</v>
       </c>
       <c r="B104" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C104" t="b">
         <v>1</v>
@@ -2038,7 +1933,7 @@
         <v>106</v>
       </c>
       <c r="B105" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C105" t="b">
         <v>1</v>
@@ -2049,7 +1944,7 @@
         <v>107</v>
       </c>
       <c r="B106" t="n">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="C106" t="b">
         <v>1</v>
@@ -2060,7 +1955,7 @@
         <v>108</v>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C107" t="b">
         <v>1</v>
@@ -2071,7 +1966,7 @@
         <v>109</v>
       </c>
       <c r="B108" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C108" t="b">
         <v>1</v>
@@ -2082,7 +1977,7 @@
         <v>110</v>
       </c>
       <c r="B109" t="n">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C109" t="b">
         <v>1</v>
@@ -2093,7 +1988,7 @@
         <v>111</v>
       </c>
       <c r="B110" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C110" t="b">
         <v>1</v>
@@ -2115,7 +2010,7 @@
         <v>113</v>
       </c>
       <c r="B112" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C112" t="b">
         <v>1</v>
@@ -2126,7 +2021,7 @@
         <v>114</v>
       </c>
       <c r="B113" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C113" t="b">
         <v>1</v>
@@ -2137,7 +2032,7 @@
         <v>115</v>
       </c>
       <c r="B114" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="C114" t="b">
         <v>1</v>
@@ -2148,7 +2043,7 @@
         <v>116</v>
       </c>
       <c r="B115" t="n">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C115" t="b">
         <v>1</v>
@@ -2159,7 +2054,7 @@
         <v>117</v>
       </c>
       <c r="B116" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C116" t="b">
         <v>1</v>
@@ -2170,7 +2065,7 @@
         <v>118</v>
       </c>
       <c r="B117" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C117" t="b">
         <v>1</v>
@@ -2181,7 +2076,7 @@
         <v>119</v>
       </c>
       <c r="B118" t="n">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="C118" t="b">
         <v>1</v>
@@ -2192,7 +2087,7 @@
         <v>120</v>
       </c>
       <c r="B119" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C119" t="b">
         <v>1</v>
@@ -2203,7 +2098,7 @@
         <v>121</v>
       </c>
       <c r="B120" t="n">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C120" t="b">
         <v>1</v>
@@ -2214,7 +2109,7 @@
         <v>122</v>
       </c>
       <c r="B121" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C121" t="b">
         <v>1</v>
@@ -2225,7 +2120,7 @@
         <v>123</v>
       </c>
       <c r="B122" t="n">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="C122" t="b">
         <v>1</v>
@@ -2236,7 +2131,7 @@
         <v>124</v>
       </c>
       <c r="B123" t="n">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C123" t="b">
         <v>1</v>
@@ -2247,7 +2142,7 @@
         <v>125</v>
       </c>
       <c r="B124" t="n">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="C124" t="b">
         <v>1</v>
@@ -2258,7 +2153,7 @@
         <v>126</v>
       </c>
       <c r="B125" t="n">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="C125" t="b">
         <v>1</v>
@@ -2269,7 +2164,7 @@
         <v>127</v>
       </c>
       <c r="B126" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C126" t="b">
         <v>1</v>
@@ -2280,7 +2175,7 @@
         <v>128</v>
       </c>
       <c r="B127" t="n">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="C127" t="b">
         <v>1</v>
@@ -2291,7 +2186,7 @@
         <v>129</v>
       </c>
       <c r="B128" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C128" t="b">
         <v>1</v>
@@ -2302,7 +2197,7 @@
         <v>130</v>
       </c>
       <c r="B129" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C129" t="b">
         <v>1</v>
@@ -2313,7 +2208,7 @@
         <v>131</v>
       </c>
       <c r="B130" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C130" t="b">
         <v>1</v>
@@ -2324,7 +2219,7 @@
         <v>132</v>
       </c>
       <c r="B131" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C131" t="b">
         <v>1</v>
@@ -2335,7 +2230,7 @@
         <v>133</v>
       </c>
       <c r="B132" t="n">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="C132" t="b">
         <v>1</v>
@@ -2346,7 +2241,7 @@
         <v>134</v>
       </c>
       <c r="B133" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C133" t="b">
         <v>1</v>
@@ -2357,7 +2252,7 @@
         <v>135</v>
       </c>
       <c r="B134" t="n">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="C134" t="b">
         <v>1</v>
@@ -2368,7 +2263,7 @@
         <v>136</v>
       </c>
       <c r="B135" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C135" t="b">
         <v>1</v>
@@ -2379,7 +2274,7 @@
         <v>137</v>
       </c>
       <c r="B136" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C136" t="b">
         <v>1</v>
@@ -2401,7 +2296,7 @@
         <v>139</v>
       </c>
       <c r="B138" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C138" t="b">
         <v>1</v>
@@ -2412,7 +2307,7 @@
         <v>140</v>
       </c>
       <c r="B139" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C139" t="b">
         <v>1</v>
@@ -2423,7 +2318,7 @@
         <v>141</v>
       </c>
       <c r="B140" t="n">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="C140" t="b">
         <v>1</v>
@@ -2434,7 +2329,7 @@
         <v>142</v>
       </c>
       <c r="B141" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C141" t="b">
         <v>1</v>
@@ -2445,7 +2340,7 @@
         <v>143</v>
       </c>
       <c r="B142" t="n">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C142" t="b">
         <v>1</v>
@@ -2456,7 +2351,7 @@
         <v>144</v>
       </c>
       <c r="B143" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C143" t="b">
         <v>1</v>
@@ -2467,7 +2362,7 @@
         <v>145</v>
       </c>
       <c r="B144" t="n">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C144" t="b">
         <v>1</v>
@@ -2478,394 +2373,9 @@
         <v>146</v>
       </c>
       <c r="B145" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C145" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>147</v>
-      </c>
-      <c r="B146" t="n">
-        <v>6</v>
-      </c>
-      <c r="C146" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>148</v>
-      </c>
-      <c r="B147" t="n">
-        <v>4</v>
-      </c>
-      <c r="C147" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>149</v>
-      </c>
-      <c r="B148" t="n">
-        <v>50</v>
-      </c>
-      <c r="C148" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>150</v>
-      </c>
-      <c r="B149" t="n">
-        <v>71</v>
-      </c>
-      <c r="C149" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>151</v>
-      </c>
-      <c r="B150" t="n">
-        <v>5</v>
-      </c>
-      <c r="C150" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>152</v>
-      </c>
-      <c r="B151" t="n">
-        <v>103</v>
-      </c>
-      <c r="C151" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>153</v>
-      </c>
-      <c r="B152" t="n">
-        <v>44</v>
-      </c>
-      <c r="C152" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>154</v>
-      </c>
-      <c r="B153" t="n">
-        <v>4</v>
-      </c>
-      <c r="C153" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>155</v>
-      </c>
-      <c r="B154" t="n">
-        <v>103</v>
-      </c>
-      <c r="C154" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>156</v>
-      </c>
-      <c r="B155" t="n">
-        <v>3</v>
-      </c>
-      <c r="C155" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>157</v>
-      </c>
-      <c r="B156" t="n">
-        <v>97</v>
-      </c>
-      <c r="C156" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>158</v>
-      </c>
-      <c r="B157" t="n">
-        <v>80</v>
-      </c>
-      <c r="C157" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>159</v>
-      </c>
-      <c r="B158" t="n">
-        <v>4</v>
-      </c>
-      <c r="C158" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>160</v>
-      </c>
-      <c r="B159" t="n">
-        <v>68</v>
-      </c>
-      <c r="C159" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>161</v>
-      </c>
-      <c r="B160" t="n">
-        <v>43</v>
-      </c>
-      <c r="C160" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>162</v>
-      </c>
-      <c r="B161" t="n">
-        <v>4</v>
-      </c>
-      <c r="C161" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>163</v>
-      </c>
-      <c r="B162" t="n">
-        <v>8</v>
-      </c>
-      <c r="C162" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>164</v>
-      </c>
-      <c r="B163" t="n">
-        <v>13</v>
-      </c>
-      <c r="C163" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>165</v>
-      </c>
-      <c r="B164" t="n">
-        <v>61</v>
-      </c>
-      <c r="C164" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>166</v>
-      </c>
-      <c r="B165" t="n">
-        <v>59</v>
-      </c>
-      <c r="C165" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>167</v>
-      </c>
-      <c r="B166" t="n">
-        <v>43</v>
-      </c>
-      <c r="C166" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>168</v>
-      </c>
-      <c r="B167" t="n">
-        <v>134</v>
-      </c>
-      <c r="C167" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>169</v>
-      </c>
-      <c r="B168" t="n">
-        <v>31</v>
-      </c>
-      <c r="C168" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>170</v>
-      </c>
-      <c r="B169" t="n">
-        <v>38</v>
-      </c>
-      <c r="C169" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>171</v>
-      </c>
-      <c r="B170" t="n">
-        <v>50</v>
-      </c>
-      <c r="C170" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>172</v>
-      </c>
-      <c r="B171" t="n">
-        <v>28</v>
-      </c>
-      <c r="C171" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>173</v>
-      </c>
-      <c r="B172" t="n">
-        <v>69</v>
-      </c>
-      <c r="C172" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B173" t="n">
-        <v>27</v>
-      </c>
-      <c r="C173" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>175</v>
-      </c>
-      <c r="B174" t="n">
-        <v>44</v>
-      </c>
-      <c r="C174" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>176</v>
-      </c>
-      <c r="B175" t="n">
-        <v>107</v>
-      </c>
-      <c r="C175" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>177</v>
-      </c>
-      <c r="B176" t="n">
-        <v>31</v>
-      </c>
-      <c r="C176" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>178</v>
-      </c>
-      <c r="B177" t="n">
-        <v>84</v>
-      </c>
-      <c r="C177" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>179</v>
-      </c>
-      <c r="B178" t="n">
-        <v>80</v>
-      </c>
-      <c r="C178" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>180</v>
-      </c>
-      <c r="B179" t="n">
-        <v>44</v>
-      </c>
-      <c r="C179" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>181</v>
-      </c>
-      <c r="B180" t="n">
-        <v>35</v>
-      </c>
-      <c r="C180" t="b">
         <v>1</v>
       </c>
     </row>
